--- a/data/marseille.xlsx
+++ b/data/marseille.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aminata\Desktop\IMAFA\UE Mathematiques pour la Modélisation\actuariat\Assurance_meteo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B9DC1E-55FB-45A9-8A3A-57E357D004F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D81A5AB-D73E-4490-8937-F706662DD2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,6 +39,10 @@
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Feuil1;Extended Properties=&quot;&quot;" command="SELECT * FROM [Feuil1]"/>
   </connection>
 </connections>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83396ACF-BC91-4CB8-994F-710D4D090B6C}">
-  <dimension ref="A1:P367"/>
+  <dimension ref="A1:U367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="P1" sqref="P1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -366,7 +370,7 @@
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>2001</f>
         <v>2001</v>
@@ -431,8 +435,28 @@
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1">
+        <f t="shared" ref="Q1" si="1">P1+1</f>
+        <v>2017</v>
+      </c>
+      <c r="R1">
+        <f t="shared" ref="R1" si="2">Q1+1</f>
+        <v>2018</v>
+      </c>
+      <c r="S1">
+        <f t="shared" ref="S1" si="3">R1+1</f>
+        <v>2019</v>
+      </c>
+      <c r="T1">
+        <f t="shared" ref="T1" si="4">S1+1</f>
+        <v>2020</v>
+      </c>
+      <c r="U1">
+        <f t="shared" ref="U1" si="5">T1+1</f>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -481,8 +505,23 @@
       <c r="P2" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -531,8 +570,23 @@
       <c r="P3" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.8</v>
       </c>
@@ -581,8 +635,23 @@
       <c r="P4" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.6</v>
       </c>
@@ -631,8 +700,23 @@
       <c r="P5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.2</v>
       </c>
@@ -681,8 +765,23 @@
       <c r="P6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.2</v>
       </c>
@@ -731,8 +830,23 @@
       <c r="P7" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.3</v>
       </c>
@@ -781,8 +895,23 @@
       <c r="P8" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -831,8 +960,23 @@
       <c r="P9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.2</v>
       </c>
@@ -881,8 +1025,23 @@
       <c r="P10" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>6.3</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -931,8 +1090,23 @@
       <c r="P11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>0.6</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0.4</v>
+      </c>
+      <c r="U11">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.2</v>
       </c>
@@ -981,8 +1155,23 @@
       <c r="P12" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.8</v>
       </c>
@@ -1031,8 +1220,23 @@
       <c r="P13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.4</v>
       </c>
@@ -1081,8 +1285,23 @@
       <c r="P14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>0.2</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1131,8 +1350,23 @@
       <c r="P15" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1181,8 +1415,23 @@
       <c r="P16" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.2</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0.2</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.4</v>
       </c>
@@ -1231,8 +1480,23 @@
       <c r="P17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.6</v>
       </c>
@@ -1281,8 +1545,23 @@
       <c r="P18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>7.5</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.6</v>
       </c>
@@ -1331,8 +1610,23 @@
       <c r="P19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1381,8 +1675,23 @@
       <c r="P20" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1431,8 +1740,23 @@
       <c r="P21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>0.4</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>4.2</v>
+      </c>
+      <c r="U21">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1481,8 +1805,23 @@
       <c r="P22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1531,8 +1870,23 @@
       <c r="P23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1581,8 +1935,23 @@
       <c r="P24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.6</v>
+      </c>
+      <c r="T24">
+        <v>0.2</v>
+      </c>
+      <c r="U24">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1631,8 +2000,23 @@
       <c r="P25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>7.5</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.2</v>
       </c>
@@ -1681,8 +2065,23 @@
       <c r="P26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>12.3</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.6</v>
       </c>
@@ -1731,8 +2130,23 @@
       <c r="P27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>13.4</v>
+      </c>
+      <c r="R27">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>12.9</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1781,8 +2195,23 @@
       <c r="P28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>0.2</v>
+      </c>
+      <c r="R28">
+        <v>10.5</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>33</v>
       </c>
@@ -1831,8 +2260,23 @@
       <c r="P29" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>33</v>
       </c>
@@ -1881,8 +2325,23 @@
       <c r="P30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>1.6</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1931,8 +2390,23 @@
       <c r="P31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0.6</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1981,8 +2455,23 @@
       <c r="P32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2031,8 +2520,23 @@
       <c r="P33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1.4</v>
+      </c>
+      <c r="S33">
+        <v>7.9</v>
+      </c>
+      <c r="T33">
+        <v>0.2</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2081,8 +2585,23 @@
       <c r="P34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>1.4</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>2.8</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2131,8 +2650,23 @@
       <c r="P35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2181,8 +2715,23 @@
       <c r="P36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>0.4</v>
+      </c>
+      <c r="R36">
+        <v>2.4</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2231,8 +2780,23 @@
       <c r="P37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>5</v>
+      </c>
+      <c r="R37">
+        <v>0.6</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -2281,8 +2845,23 @@
       <c r="P38" s="1">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>3</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2331,8 +2910,23 @@
       <c r="P39" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -2381,8 +2975,23 @@
       <c r="P40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -2431,8 +3040,23 @@
       <c r="P41" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>10.5</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2481,8 +3105,23 @@
       <c r="P42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -2531,8 +3170,23 @@
       <c r="P43" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -2581,8 +3235,23 @@
       <c r="P44" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -2631,8 +3300,23 @@
       <c r="P45" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0.2</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -2681,8 +3365,23 @@
       <c r="P46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0.2</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -2731,8 +3430,23 @@
       <c r="P47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>0.2</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -2781,8 +3495,23 @@
       <c r="P48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <v>0.2</v>
+      </c>
+      <c r="R48">
+        <v>0.2</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13.6</v>
       </c>
@@ -2831,8 +3560,23 @@
       <c r="P49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>3.6</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1.8</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1.2</v>
       </c>
@@ -2881,8 +3625,23 @@
       <c r="P50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1.3</v>
       </c>
@@ -2931,8 +3690,23 @@
       <c r="P51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -2981,8 +3755,23 @@
       <c r="P52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -3031,8 +3820,23 @@
       <c r="P53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>3.6</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -3081,8 +3885,23 @@
       <c r="P54" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -3131,8 +3950,23 @@
       <c r="P55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0</v>
       </c>
@@ -3181,8 +4015,23 @@
       <c r="P56" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>5.6</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -3231,8 +4080,23 @@
       <c r="P57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>1.6</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -3281,8 +4145,23 @@
       <c r="P58" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20</v>
       </c>
@@ -3331,8 +4210,23 @@
       <c r="P59" s="1">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1.4</v>
+      </c>
+      <c r="U59">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.6</v>
       </c>
@@ -3381,8 +4275,23 @@
       <c r="P60" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <v>1.4</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.8</v>
       </c>
@@ -3431,8 +4340,23 @@
       <c r="P61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>1.2</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>2.6</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5.8</v>
       </c>
@@ -3481,8 +4405,23 @@
       <c r="P62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <v>0.2</v>
+      </c>
+      <c r="R62">
+        <v>7.3</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2.4</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.2</v>
       </c>
@@ -3531,8 +4470,23 @@
       <c r="P63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <v>6.1</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2.4</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.3</v>
       </c>
@@ -3581,8 +4535,23 @@
       <c r="P64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <v>3.4</v>
+      </c>
+      <c r="R64">
+        <v>1.2</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -3631,8 +4600,23 @@
       <c r="P65" s="1">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <v>1.2</v>
+      </c>
+      <c r="R65">
+        <v>8.6</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -3681,8 +4665,23 @@
       <c r="P66" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <v>1.2</v>
+      </c>
+      <c r="R66">
+        <v>1.2</v>
+      </c>
+      <c r="S66">
+        <v>0.6</v>
+      </c>
+      <c r="T66">
+        <v>4.3</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -3731,8 +4730,23 @@
       <c r="P67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>13</v>
       </c>
@@ -3781,8 +4795,23 @@
       <c r="P68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.6</v>
       </c>
@@ -3831,8 +4860,23 @@
       <c r="P69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.4</v>
       </c>
@@ -3881,8 +4925,23 @@
       <c r="P70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>2.4</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.5</v>
       </c>
@@ -3931,8 +4990,23 @@
       <c r="P71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0.2</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2.2000000000000002</v>
       </c>
@@ -3981,8 +5055,23 @@
       <c r="P72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <v>2</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2.2999999999999998</v>
       </c>
@@ -4031,8 +5120,23 @@
       <c r="P73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -4081,8 +5185,23 @@
       <c r="P74" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>6.5</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -4131,8 +5250,23 @@
       <c r="P75" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>7.8</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -4181,8 +5315,23 @@
       <c r="P76" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>0.2</v>
+      </c>
+      <c r="R76">
+        <v>7.5</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6</v>
       </c>
@@ -4231,8 +5380,23 @@
       <c r="P77" s="1">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>0.2</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>6.1</v>
       </c>
@@ -4281,8 +5445,23 @@
       <c r="P78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0</v>
       </c>
@@ -4331,8 +5510,23 @@
       <c r="P79" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0</v>
       </c>
@@ -4381,8 +5575,23 @@
       <c r="P80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.2</v>
       </c>
@@ -4431,8 +5640,23 @@
       <c r="P81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>0.2</v>
+      </c>
+      <c r="R81">
+        <v>1.2</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0</v>
       </c>
@@ -4481,8 +5705,23 @@
       <c r="P82" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>0</v>
       </c>
@@ -4531,8 +5770,23 @@
       <c r="P83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>41.9</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>0</v>
       </c>
@@ -4581,8 +5835,23 @@
       <c r="P84" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>1.8</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0</v>
       </c>
@@ -4631,8 +5900,23 @@
       <c r="P85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>17</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0</v>
       </c>
@@ -4681,8 +5965,23 @@
       <c r="P86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>0.2</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>2.4</v>
+      </c>
+      <c r="U86">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0</v>
       </c>
@@ -4731,8 +6030,23 @@
       <c r="P87" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.6</v>
       </c>
@@ -4781,8 +6095,23 @@
       <c r="P88" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -4831,8 +6160,23 @@
       <c r="P89" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0.6</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4881,8 +6225,23 @@
       <c r="P90" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0</v>
       </c>
@@ -4931,8 +6290,23 @@
       <c r="P91" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <v>0.4</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -4981,8 +6355,23 @@
       <c r="P92" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <v>14.7</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>3.6</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0</v>
       </c>
@@ -5031,8 +6420,23 @@
       <c r="P93" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <v>3</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0</v>
       </c>
@@ -5081,8 +6485,23 @@
       <c r="P94" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>23.8</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1.2</v>
       </c>
@@ -5131,8 +6550,23 @@
       <c r="P95" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1.3</v>
       </c>
@@ -5181,8 +6615,23 @@
       <c r="P96" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <v>8.9</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3.4</v>
       </c>
@@ -5231,8 +6680,23 @@
       <c r="P97" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -5281,8 +6745,23 @@
       <c r="P98" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -5331,8 +6810,23 @@
       <c r="P99" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>0</v>
       </c>
@@ -5381,8 +6875,23 @@
       <c r="P100" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <v>0.2</v>
+      </c>
+      <c r="R100">
+        <v>6.1</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0</v>
       </c>
@@ -5431,8 +6940,23 @@
       <c r="P101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>1.2</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>0</v>
       </c>
@@ -5481,8 +7005,23 @@
       <c r="P102" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>38.5</v>
+      </c>
+      <c r="S102">
+        <v>2.8</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>0</v>
       </c>
@@ -5531,8 +7070,23 @@
       <c r="P103" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <v>0.2</v>
+      </c>
+      <c r="R103">
+        <v>14.7</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -5581,8 +7135,23 @@
       <c r="P104" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0.4</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>0</v>
       </c>
@@ -5631,8 +7200,23 @@
       <c r="P105" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>0</v>
       </c>
@@ -5681,8 +7265,23 @@
       <c r="P106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>0</v>
       </c>
@@ -5731,8 +7330,23 @@
       <c r="P107" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>0</v>
       </c>
@@ -5781,8 +7395,23 @@
       <c r="P108" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>0</v>
       </c>
@@ -5831,8 +7460,23 @@
       <c r="P109" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>0.4</v>
       </c>
@@ -5881,8 +7525,23 @@
       <c r="P110" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0.8</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0.5</v>
       </c>
@@ -5931,8 +7590,23 @@
       <c r="P111" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>10.7</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>0</v>
       </c>
@@ -5981,8 +7655,23 @@
       <c r="P112" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0.2</v>
+      </c>
+      <c r="T112">
+        <v>14.4</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3.2</v>
       </c>
@@ -6031,8 +7720,23 @@
       <c r="P113" s="1">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0.2</v>
+      </c>
+      <c r="T113">
+        <v>4</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3.3</v>
       </c>
@@ -6081,8 +7785,23 @@
       <c r="P114" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>2.4</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>0</v>
       </c>
@@ -6131,8 +7850,23 @@
       <c r="P115" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>0</v>
       </c>
@@ -6181,8 +7915,23 @@
       <c r="P116" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q116">
+        <v>12.9</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>7.3</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>0</v>
       </c>
@@ -6231,8 +7980,23 @@
       <c r="P117" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q117">
+        <v>2.4</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>0</v>
       </c>
@@ -6281,8 +8045,23 @@
       <c r="P118" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>0</v>
       </c>
@@ -6331,8 +8110,23 @@
       <c r="P119" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>14.4</v>
+      </c>
+      <c r="U119">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>0</v>
       </c>
@@ -6381,8 +8175,23 @@
       <c r="P120" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>11.3</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>4</v>
+      </c>
+      <c r="U120">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>15.8</v>
       </c>
@@ -6431,8 +8240,23 @@
       <c r="P121" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <v>13.3</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>18.399999999999999</v>
       </c>
@@ -6481,8 +8305,23 @@
       <c r="P122" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0.2</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>42</v>
       </c>
@@ -6531,8 +8370,23 @@
       <c r="P123" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q123">
+        <v>1.2</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0.2</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>41.9</v>
       </c>
@@ -6581,8 +8435,23 @@
       <c r="P124" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <v>0.2</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -6631,8 +8500,23 @@
       <c r="P125" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q125">
+        <v>0.2</v>
+      </c>
+      <c r="R125">
+        <v>0.8</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -6681,8 +8565,23 @@
       <c r="P126" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>0</v>
       </c>
@@ -6731,8 +8630,23 @@
       <c r="P127" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q127">
+        <v>19.2</v>
+      </c>
+      <c r="R127">
+        <v>1</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>0</v>
       </c>
@@ -6781,8 +8695,23 @@
       <c r="P128" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0.4</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -6831,8 +8760,23 @@
       <c r="P129" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>1.8</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>0</v>
       </c>
@@ -6881,8 +8825,23 @@
       <c r="P130" s="1">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>3.2</v>
+      </c>
+      <c r="S130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>0</v>
       </c>
@@ -6931,8 +8890,23 @@
       <c r="P131" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <v>5.4</v>
+      </c>
+      <c r="U131">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2.6</v>
       </c>
@@ -6981,8 +8955,23 @@
       <c r="P132" s="1">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q132">
+        <v>0.2</v>
+      </c>
+      <c r="R132">
+        <v>0.2</v>
+      </c>
+      <c r="S132">
+        <v>0.2</v>
+      </c>
+      <c r="T132">
+        <v>23.7</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2.5</v>
       </c>
@@ -7031,8 +9020,23 @@
       <c r="P133" s="1">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>4</v>
+      </c>
+      <c r="U133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0</v>
       </c>
@@ -7081,8 +9085,23 @@
       <c r="P134" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q134">
+        <v>0.2</v>
+      </c>
+      <c r="R134">
+        <v>27.8</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="T134">
+        <v>1.4</v>
+      </c>
+      <c r="U134">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>0</v>
       </c>
@@ -7131,8 +9150,23 @@
       <c r="P135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>1.6</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>0</v>
       </c>
@@ -7181,8 +9215,23 @@
       <c r="P136" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <v>12.2</v>
+      </c>
+      <c r="U136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>0</v>
       </c>
@@ -7231,8 +9280,23 @@
       <c r="P137" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <v>0</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2</v>
       </c>
@@ -7281,8 +9345,23 @@
       <c r="P138" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0.2</v>
+      </c>
+      <c r="S138">
+        <v>0.6</v>
+      </c>
+      <c r="T138">
+        <v>5.2</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2</v>
       </c>
@@ -7331,8 +9410,23 @@
       <c r="P139" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q139">
+        <v>4</v>
+      </c>
+      <c r="R139">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+      <c r="T139">
+        <v>6</v>
+      </c>
+      <c r="U139">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0</v>
       </c>
@@ -7381,8 +9475,23 @@
       <c r="P140" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>0</v>
+      </c>
+      <c r="S140">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T140">
+        <v>0</v>
+      </c>
+      <c r="U140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>11.4</v>
       </c>
@@ -7431,8 +9540,23 @@
       <c r="P141" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>0</v>
+      </c>
+      <c r="S141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>5</v>
       </c>
@@ -7481,8 +9605,23 @@
       <c r="P142" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5.0999999999999996</v>
       </c>
@@ -7531,8 +9670,23 @@
       <c r="P143" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>0.2</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>0</v>
       </c>
@@ -7581,8 +9735,23 @@
       <c r="P144" s="1">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>0.2</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>0.4</v>
       </c>
@@ -7631,8 +9800,23 @@
       <c r="P145" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>0.5</v>
       </c>
@@ -7681,8 +9865,23 @@
       <c r="P146" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>0</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>0</v>
       </c>
@@ -7731,8 +9930,23 @@
       <c r="P147" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>0</v>
+      </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0</v>
       </c>
@@ -7781,8 +9995,23 @@
       <c r="P148" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>0.4</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>0.8</v>
       </c>
@@ -7831,8 +10060,23 @@
       <c r="P149" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>0.2</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>0.8</v>
       </c>
@@ -7881,8 +10125,23 @@
       <c r="P150" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>0.4</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>0</v>
       </c>
@@ -7931,8 +10190,23 @@
       <c r="P151" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q151">
+        <v>1.4</v>
+      </c>
+      <c r="R151">
+        <v>2.8</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>0</v>
       </c>
@@ -7981,8 +10255,23 @@
       <c r="P152" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>5.5</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+      <c r="U152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>0</v>
       </c>
@@ -8031,8 +10320,23 @@
       <c r="P153" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>0.2</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>0</v>
       </c>
@@ -8081,8 +10385,23 @@
       <c r="P154" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>0</v>
+      </c>
+      <c r="T154">
+        <v>1.8</v>
+      </c>
+      <c r="U154">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>0</v>
       </c>
@@ -8131,8 +10450,23 @@
       <c r="P155" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q155">
+        <v>4.5</v>
+      </c>
+      <c r="R155">
+        <v>2.6</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155">
+        <v>0.4</v>
+      </c>
+      <c r="U155">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>0</v>
       </c>
@@ -8181,8 +10515,23 @@
       <c r="P156" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>1.8</v>
+      </c>
+      <c r="S156">
+        <v>0</v>
+      </c>
+      <c r="T156">
+        <v>4.2</v>
+      </c>
+      <c r="U156">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>0</v>
       </c>
@@ -8231,8 +10580,23 @@
       <c r="P157" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>0.6</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+      <c r="T157">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>0</v>
       </c>
@@ -8281,8 +10645,23 @@
       <c r="P158" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>1.4</v>
+      </c>
+      <c r="S158">
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>0</v>
       </c>
@@ -8331,8 +10710,23 @@
       <c r="P159" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>11.4</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <v>11.3</v>
+      </c>
+      <c r="U159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>0</v>
       </c>
@@ -8381,8 +10775,23 @@
       <c r="P160" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>0.2</v>
+      </c>
+      <c r="S160">
+        <v>0</v>
+      </c>
+      <c r="T160">
+        <v>0</v>
+      </c>
+      <c r="U160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>0</v>
       </c>
@@ -8431,8 +10840,23 @@
       <c r="P161" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>0</v>
+      </c>
+      <c r="S161">
+        <v>0.2</v>
+      </c>
+      <c r="T161">
+        <v>0</v>
+      </c>
+      <c r="U161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1.4</v>
       </c>
@@ -8481,8 +10905,23 @@
       <c r="P162" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>0</v>
+      </c>
+      <c r="T162">
+        <v>0</v>
+      </c>
+      <c r="U162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1.5</v>
       </c>
@@ -8531,8 +10970,23 @@
       <c r="P163" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <v>8.5</v>
+      </c>
+      <c r="T163">
+        <v>0</v>
+      </c>
+      <c r="U163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>0</v>
       </c>
@@ -8581,8 +11035,23 @@
       <c r="P164" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>0.2</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>0</v>
       </c>
@@ -8631,8 +11100,23 @@
       <c r="P165" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q165">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>1.2</v>
+      </c>
+      <c r="S165">
+        <v>0</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+      <c r="U165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -8681,8 +11165,23 @@
       <c r="P166" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>0</v>
+      </c>
+      <c r="S166">
+        <v>0</v>
+      </c>
+      <c r="T166">
+        <v>10.9</v>
+      </c>
+      <c r="U166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>0</v>
       </c>
@@ -8731,8 +11230,23 @@
       <c r="P167" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <v>0</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>0</v>
       </c>
@@ -8781,8 +11295,23 @@
       <c r="P168" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q168">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <v>0</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+      <c r="U168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>0</v>
       </c>
@@ -8831,8 +11360,23 @@
       <c r="P169" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>0</v>
+      </c>
+      <c r="S169">
+        <v>0</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>0</v>
       </c>
@@ -8881,8 +11425,23 @@
       <c r="P170" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>0</v>
+      </c>
+      <c r="S170">
+        <v>0</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+      <c r="U170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>0</v>
       </c>
@@ -8931,8 +11490,23 @@
       <c r="P171" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>0</v>
+      </c>
+      <c r="S171">
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>0</v>
       </c>
@@ -8981,8 +11555,23 @@
       <c r="P172" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <v>0</v>
+      </c>
+      <c r="S172">
+        <v>0</v>
+      </c>
+      <c r="T172">
+        <v>0</v>
+      </c>
+      <c r="U172">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>0</v>
       </c>
@@ -9031,8 +11620,23 @@
       <c r="P173" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>0</v>
+      </c>
+      <c r="S173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>0</v>
       </c>
@@ -9081,8 +11685,23 @@
       <c r="P174" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>0</v>
+      </c>
+      <c r="S174">
+        <v>0</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+      <c r="U174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>0</v>
       </c>
@@ -9131,8 +11750,23 @@
       <c r="P175" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+      <c r="U175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>0</v>
       </c>
@@ -9181,8 +11815,23 @@
       <c r="P176" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <v>0</v>
+      </c>
+      <c r="S176">
+        <v>0</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+      <c r="U176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>0</v>
       </c>
@@ -9231,8 +11880,23 @@
       <c r="P177" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+      <c r="U177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>0</v>
       </c>
@@ -9281,8 +11945,23 @@
       <c r="P178" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>0</v>
       </c>
@@ -9331,8 +12010,23 @@
       <c r="P179" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q179">
+        <v>11.5</v>
+      </c>
+      <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+      <c r="U179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>0</v>
       </c>
@@ -9381,8 +12075,23 @@
       <c r="P180" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q180">
+        <v>1.4</v>
+      </c>
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>0</v>
       </c>
@@ -9431,8 +12140,23 @@
       <c r="P181" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>0</v>
       </c>
@@ -9481,8 +12205,23 @@
       <c r="P182" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q182">
+        <v>0.2</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+      <c r="T182">
+        <v>0</v>
+      </c>
+      <c r="U182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>0</v>
       </c>
@@ -9531,8 +12270,23 @@
       <c r="P183" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+      <c r="U183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>0</v>
       </c>
@@ -9581,8 +12335,23 @@
       <c r="P184" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+      <c r="U184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>0</v>
       </c>
@@ -9631,8 +12400,23 @@
       <c r="P185" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>0</v>
+      </c>
+      <c r="S185">
+        <v>0</v>
+      </c>
+      <c r="T185">
+        <v>0</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>0</v>
       </c>
@@ -9681,8 +12465,23 @@
       <c r="P186" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>0</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+      <c r="U186">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>0</v>
       </c>
@@ -9731,8 +12530,23 @@
       <c r="P187" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+      <c r="U187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>4.4000000000000004</v>
       </c>
@@ -9781,8 +12595,23 @@
       <c r="P188" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>4.3</v>
       </c>
@@ -9831,8 +12660,23 @@
       <c r="P189" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>0</v>
+      </c>
+      <c r="S189">
+        <v>1</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+      <c r="U189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>0</v>
       </c>
@@ -9881,8 +12725,23 @@
       <c r="P190" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>0</v>
+      </c>
+      <c r="S190">
+        <v>0</v>
+      </c>
+      <c r="T190">
+        <v>0</v>
+      </c>
+      <c r="U190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>0</v>
       </c>
@@ -9931,8 +12790,23 @@
       <c r="P191" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>0</v>
+      </c>
+      <c r="S191">
+        <v>0.2</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+      <c r="U191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>0</v>
       </c>
@@ -9981,8 +12855,23 @@
       <c r="P192" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>0</v>
+      </c>
+      <c r="S192">
+        <v>0</v>
+      </c>
+      <c r="T192">
+        <v>0</v>
+      </c>
+      <c r="U192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>0</v>
       </c>
@@ -10031,8 +12920,23 @@
       <c r="P193" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>0</v>
+      </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+      <c r="T193">
+        <v>0</v>
+      </c>
+      <c r="U193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>0</v>
       </c>
@@ -10081,8 +12985,23 @@
       <c r="P194" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+      <c r="T194">
+        <v>0</v>
+      </c>
+      <c r="U194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>0</v>
       </c>
@@ -10131,8 +13050,23 @@
       <c r="P195" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+      <c r="U195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>0.2</v>
       </c>
@@ -10181,8 +13115,23 @@
       <c r="P196" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <v>0</v>
+      </c>
+      <c r="S196">
+        <v>0</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+      <c r="U196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>14</v>
       </c>
@@ -10231,8 +13180,23 @@
       <c r="P197" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <v>0</v>
+      </c>
+      <c r="T197">
+        <v>0</v>
+      </c>
+      <c r="U197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>14</v>
       </c>
@@ -10281,8 +13245,23 @@
       <c r="P198" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>6.1</v>
+      </c>
+      <c r="S198">
+        <v>0</v>
+      </c>
+      <c r="T198">
+        <v>0</v>
+      </c>
+      <c r="U198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>0.2</v>
       </c>
@@ -10331,8 +13310,23 @@
       <c r="P199" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="R199">
+        <v>0</v>
+      </c>
+      <c r="S199">
+        <v>0</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+      <c r="U199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>0.3</v>
       </c>
@@ -10381,8 +13375,23 @@
       <c r="P200" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>0</v>
+      </c>
+      <c r="S200">
+        <v>0</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+      <c r="U200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>0</v>
       </c>
@@ -10431,8 +13440,23 @@
       <c r="P201" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <v>0</v>
+      </c>
+      <c r="S201">
+        <v>0</v>
+      </c>
+      <c r="T201">
+        <v>0</v>
+      </c>
+      <c r="U201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0</v>
       </c>
@@ -10481,8 +13505,23 @@
       <c r="P202" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>14.2</v>
+      </c>
+      <c r="S202">
+        <v>0</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+      <c r="U202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -10531,8 +13570,23 @@
       <c r="P203" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="R203">
+        <v>0</v>
+      </c>
+      <c r="S203">
+        <v>0</v>
+      </c>
+      <c r="T203">
+        <v>0</v>
+      </c>
+      <c r="U203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>0</v>
       </c>
@@ -10581,8 +13635,23 @@
       <c r="P204" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>0</v>
+      </c>
+      <c r="S204">
+        <v>0</v>
+      </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
+      <c r="U204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>0</v>
       </c>
@@ -10631,8 +13700,23 @@
       <c r="P205" s="1">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>0</v>
+      </c>
+      <c r="S205">
+        <v>0</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+      <c r="U205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>0</v>
       </c>
@@ -10681,8 +13765,23 @@
       <c r="P206" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>0</v>
+      </c>
+      <c r="S206">
+        <v>0</v>
+      </c>
+      <c r="T206">
+        <v>0</v>
+      </c>
+      <c r="U206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>0</v>
       </c>
@@ -10731,8 +13830,23 @@
       <c r="P207" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <v>0</v>
+      </c>
+      <c r="S207">
+        <v>0</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+      <c r="U207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>0</v>
       </c>
@@ -10781,8 +13895,23 @@
       <c r="P208" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>0</v>
+      </c>
+      <c r="S208">
+        <v>0</v>
+      </c>
+      <c r="T208">
+        <v>0</v>
+      </c>
+      <c r="U208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>0</v>
       </c>
@@ -10831,8 +13960,23 @@
       <c r="P209" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="R209">
+        <v>0</v>
+      </c>
+      <c r="S209">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T209">
+        <v>0</v>
+      </c>
+      <c r="U209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>0</v>
       </c>
@@ -10881,8 +14025,23 @@
       <c r="P210" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>0</v>
+      </c>
+      <c r="S210">
+        <v>0</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+      <c r="U210">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>0</v>
       </c>
@@ -10931,8 +14090,23 @@
       <c r="P211" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <v>0</v>
+      </c>
+      <c r="S211">
+        <v>0</v>
+      </c>
+      <c r="T211">
+        <v>0</v>
+      </c>
+      <c r="U211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>0</v>
       </c>
@@ -10981,8 +14155,23 @@
       <c r="P212" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>0</v>
+      </c>
+      <c r="S212">
+        <v>0</v>
+      </c>
+      <c r="T212">
+        <v>0</v>
+      </c>
+      <c r="U212">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>0</v>
       </c>
@@ -11031,8 +14220,23 @@
       <c r="P213" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>0</v>
+      </c>
+      <c r="S213">
+        <v>0</v>
+      </c>
+      <c r="T213">
+        <v>0</v>
+      </c>
+      <c r="U213">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>0</v>
       </c>
@@ -11081,8 +14285,23 @@
       <c r="P214" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>0</v>
+      </c>
+      <c r="S214">
+        <v>0</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+      <c r="U214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>0</v>
       </c>
@@ -11131,8 +14350,23 @@
       <c r="P215" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>0</v>
+      </c>
+      <c r="S215">
+        <v>0</v>
+      </c>
+      <c r="T215">
+        <v>0</v>
+      </c>
+      <c r="U215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>0</v>
       </c>
@@ -11181,8 +14415,23 @@
       <c r="P216" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>0</v>
+      </c>
+      <c r="S216">
+        <v>0</v>
+      </c>
+      <c r="T216">
+        <v>0</v>
+      </c>
+      <c r="U216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>0</v>
       </c>
@@ -11231,8 +14480,23 @@
       <c r="P217" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>0</v>
+      </c>
+      <c r="S217">
+        <v>0</v>
+      </c>
+      <c r="T217">
+        <v>0</v>
+      </c>
+      <c r="U217">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>0</v>
       </c>
@@ -11281,8 +14545,23 @@
       <c r="P218" s="1">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q218">
+        <v>3.1</v>
+      </c>
+      <c r="R218">
+        <v>0</v>
+      </c>
+      <c r="S218">
+        <v>0</v>
+      </c>
+      <c r="T218">
+        <v>0</v>
+      </c>
+      <c r="U218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>0</v>
       </c>
@@ -11331,8 +14610,23 @@
       <c r="P219" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q219">
+        <v>0.2</v>
+      </c>
+      <c r="R219">
+        <v>0</v>
+      </c>
+      <c r="S219">
+        <v>0</v>
+      </c>
+      <c r="T219">
+        <v>0</v>
+      </c>
+      <c r="U219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>0</v>
       </c>
@@ -11381,8 +14675,23 @@
       <c r="P220" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>0</v>
+      </c>
+      <c r="S220">
+        <v>0</v>
+      </c>
+      <c r="T220">
+        <v>0</v>
+      </c>
+      <c r="U220">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>0</v>
       </c>
@@ -11431,8 +14740,23 @@
       <c r="P221" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q221">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>0</v>
+      </c>
+      <c r="S221">
+        <v>0</v>
+      </c>
+      <c r="T221">
+        <v>0</v>
+      </c>
+      <c r="U221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>0</v>
       </c>
@@ -11481,8 +14805,23 @@
       <c r="P222" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>15.5</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>0.8</v>
       </c>
@@ -11531,8 +14870,23 @@
       <c r="P223" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>0</v>
       </c>
@@ -11581,8 +14935,23 @@
       <c r="P224" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>0</v>
       </c>
@@ -11631,8 +15000,23 @@
       <c r="P225" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>47.2</v>
+      </c>
+      <c r="S225">
+        <v>0.4</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>0</v>
       </c>
@@ -11681,8 +15065,23 @@
       <c r="P226" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>0</v>
       </c>
@@ -11731,8 +15130,23 @@
       <c r="P227" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>0</v>
       </c>
@@ -11781,8 +15195,23 @@
       <c r="P228" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>0</v>
       </c>
@@ -11831,8 +15260,23 @@
       <c r="P229" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>0</v>
       </c>
@@ -11881,8 +15325,23 @@
       <c r="P230" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>0</v>
       </c>
@@ -11931,8 +15390,23 @@
       <c r="P231" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>0</v>
       </c>
@@ -11981,8 +15455,23 @@
       <c r="P232" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>0</v>
       </c>
@@ -12031,8 +15520,23 @@
       <c r="P233" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>0</v>
       </c>
@@ -12081,8 +15585,23 @@
       <c r="P234" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>0</v>
+      </c>
+      <c r="S234">
+        <v>0</v>
+      </c>
+      <c r="T234">
+        <v>0</v>
+      </c>
+      <c r="U234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>0</v>
       </c>
@@ -12131,8 +15650,23 @@
       <c r="P235" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q235">
+        <v>0</v>
+      </c>
+      <c r="R235">
+        <v>0.2</v>
+      </c>
+      <c r="S235">
+        <v>3</v>
+      </c>
+      <c r="T235">
+        <v>0</v>
+      </c>
+      <c r="U235">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>0</v>
       </c>
@@ -12181,8 +15715,23 @@
       <c r="P236" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
+        <v>0</v>
+      </c>
+      <c r="S236">
+        <v>0</v>
+      </c>
+      <c r="T236">
+        <v>0</v>
+      </c>
+      <c r="U236">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>0</v>
       </c>
@@ -12231,8 +15780,23 @@
       <c r="P237" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>0</v>
+      </c>
+      <c r="S237">
+        <v>0</v>
+      </c>
+      <c r="T237">
+        <v>0</v>
+      </c>
+      <c r="U237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>0</v>
       </c>
@@ -12281,8 +15845,23 @@
       <c r="P238" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q238">
+        <v>0</v>
+      </c>
+      <c r="R238">
+        <v>0</v>
+      </c>
+      <c r="S238">
+        <v>0</v>
+      </c>
+      <c r="T238">
+        <v>0</v>
+      </c>
+      <c r="U238">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>0</v>
       </c>
@@ -12331,8 +15910,23 @@
       <c r="P239" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q239">
+        <v>0</v>
+      </c>
+      <c r="R239">
+        <v>0</v>
+      </c>
+      <c r="S239">
+        <v>0</v>
+      </c>
+      <c r="T239">
+        <v>0</v>
+      </c>
+      <c r="U239">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -12381,8 +15975,23 @@
       <c r="P240" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q240">
+        <v>0</v>
+      </c>
+      <c r="R240">
+        <v>0</v>
+      </c>
+      <c r="S240">
+        <v>0</v>
+      </c>
+      <c r="T240">
+        <v>0</v>
+      </c>
+      <c r="U240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>0</v>
       </c>
@@ -12431,8 +16040,23 @@
       <c r="P241" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <v>0</v>
+      </c>
+      <c r="S241">
+        <v>6.1</v>
+      </c>
+      <c r="T241">
+        <v>0</v>
+      </c>
+      <c r="U241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>0</v>
       </c>
@@ -12481,8 +16105,23 @@
       <c r="P242" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <v>0</v>
+      </c>
+      <c r="S242">
+        <v>0</v>
+      </c>
+      <c r="T242">
+        <v>0.4</v>
+      </c>
+      <c r="U242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>0</v>
       </c>
@@ -12531,8 +16170,23 @@
       <c r="P243" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q243">
+        <v>0.2</v>
+      </c>
+      <c r="R243">
+        <v>0</v>
+      </c>
+      <c r="S243">
+        <v>0</v>
+      </c>
+      <c r="T243">
+        <v>2.8</v>
+      </c>
+      <c r="U243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>0</v>
       </c>
@@ -12581,8 +16235,23 @@
       <c r="P244" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q244">
+        <v>1.8</v>
+      </c>
+      <c r="R244">
+        <v>0</v>
+      </c>
+      <c r="S244">
+        <v>0</v>
+      </c>
+      <c r="T244">
+        <v>0</v>
+      </c>
+      <c r="U244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>0</v>
       </c>
@@ -12631,8 +16300,23 @@
       <c r="P245" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q245">
+        <v>0</v>
+      </c>
+      <c r="R245">
+        <v>0</v>
+      </c>
+      <c r="S245">
+        <v>0</v>
+      </c>
+      <c r="T245">
+        <v>0</v>
+      </c>
+      <c r="U245">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>0</v>
       </c>
@@ -12681,8 +16365,23 @@
       <c r="P246" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>0</v>
+      </c>
+      <c r="S246">
+        <v>0</v>
+      </c>
+      <c r="T246">
+        <v>0</v>
+      </c>
+      <c r="U246">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>0.4</v>
       </c>
@@ -12731,8 +16430,23 @@
       <c r="P247" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <v>0</v>
+      </c>
+      <c r="S247">
+        <v>0</v>
+      </c>
+      <c r="T247">
+        <v>0</v>
+      </c>
+      <c r="U247">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>0.5</v>
       </c>
@@ -12781,8 +16495,23 @@
       <c r="P248" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>0</v>
+      </c>
+      <c r="S248">
+        <v>0</v>
+      </c>
+      <c r="T248">
+        <v>0</v>
+      </c>
+      <c r="U248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>0</v>
       </c>
@@ -12831,8 +16560,23 @@
       <c r="P249" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <v>0</v>
+      </c>
+      <c r="S249">
+        <v>0</v>
+      </c>
+      <c r="T249">
+        <v>0</v>
+      </c>
+      <c r="U249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>0</v>
       </c>
@@ -12881,8 +16625,23 @@
       <c r="P250" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q250">
+        <v>0</v>
+      </c>
+      <c r="R250">
+        <v>0</v>
+      </c>
+      <c r="S250">
+        <v>0</v>
+      </c>
+      <c r="T250">
+        <v>0</v>
+      </c>
+      <c r="U250">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>0</v>
       </c>
@@ -12931,8 +16690,23 @@
       <c r="P251" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q251">
+        <v>0</v>
+      </c>
+      <c r="R251">
+        <v>0</v>
+      </c>
+      <c r="S251">
+        <v>0</v>
+      </c>
+      <c r="T251">
+        <v>0</v>
+      </c>
+      <c r="U251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>0</v>
       </c>
@@ -12981,8 +16755,23 @@
       <c r="P252" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252">
+        <v>0</v>
+      </c>
+      <c r="S252">
+        <v>0</v>
+      </c>
+      <c r="T252">
+        <v>0</v>
+      </c>
+      <c r="U252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>0</v>
       </c>
@@ -13031,8 +16820,23 @@
       <c r="P253" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q253">
+        <v>2.8</v>
+      </c>
+      <c r="R253">
+        <v>0</v>
+      </c>
+      <c r="S253">
+        <v>10.7</v>
+      </c>
+      <c r="T253">
+        <v>1</v>
+      </c>
+      <c r="U253">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>0</v>
       </c>
@@ -13081,8 +16885,23 @@
       <c r="P254" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q254">
+        <v>0</v>
+      </c>
+      <c r="R254">
+        <v>0</v>
+      </c>
+      <c r="S254">
+        <v>7.6</v>
+      </c>
+      <c r="T254">
+        <v>4.3</v>
+      </c>
+      <c r="U254">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>0</v>
       </c>
@@ -13131,8 +16950,23 @@
       <c r="P255" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q255">
+        <v>0</v>
+      </c>
+      <c r="R255">
+        <v>0</v>
+      </c>
+      <c r="S255">
+        <v>0</v>
+      </c>
+      <c r="T255">
+        <v>2</v>
+      </c>
+      <c r="U255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>0</v>
       </c>
@@ -13181,8 +17015,23 @@
       <c r="P256" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q256">
+        <v>0</v>
+      </c>
+      <c r="R256">
+        <v>0</v>
+      </c>
+      <c r="S256">
+        <v>0</v>
+      </c>
+      <c r="T256">
+        <v>0</v>
+      </c>
+      <c r="U256">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>0</v>
       </c>
@@ -13231,8 +17080,23 @@
       <c r="P257" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q257">
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <v>0</v>
+      </c>
+      <c r="S257">
+        <v>0</v>
+      </c>
+      <c r="T257">
+        <v>0</v>
+      </c>
+      <c r="U257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>5.8</v>
       </c>
@@ -13281,8 +17145,23 @@
       <c r="P258" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q258">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>0</v>
+      </c>
+      <c r="S258">
+        <v>0</v>
+      </c>
+      <c r="T258">
+        <v>0</v>
+      </c>
+      <c r="U258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>6</v>
       </c>
@@ -13331,8 +17210,23 @@
       <c r="P259" s="1">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q259">
+        <v>1.4</v>
+      </c>
+      <c r="R259">
+        <v>0</v>
+      </c>
+      <c r="S259">
+        <v>0</v>
+      </c>
+      <c r="T259">
+        <v>0</v>
+      </c>
+      <c r="U259">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>0</v>
       </c>
@@ -13381,8 +17275,23 @@
       <c r="P260" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q260">
+        <v>0</v>
+      </c>
+      <c r="R260">
+        <v>0</v>
+      </c>
+      <c r="S260">
+        <v>0</v>
+      </c>
+      <c r="T260">
+        <v>0</v>
+      </c>
+      <c r="U260">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>0</v>
       </c>
@@ -13431,8 +17340,23 @@
       <c r="P261" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q261">
+        <v>0</v>
+      </c>
+      <c r="R261">
+        <v>0</v>
+      </c>
+      <c r="S261">
+        <v>0</v>
+      </c>
+      <c r="T261">
+        <v>0</v>
+      </c>
+      <c r="U261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>0</v>
       </c>
@@ -13481,8 +17405,23 @@
       <c r="P262" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q262">
+        <v>0</v>
+      </c>
+      <c r="R262">
+        <v>0</v>
+      </c>
+      <c r="S262">
+        <v>0</v>
+      </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
+      <c r="U262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>0</v>
       </c>
@@ -13531,8 +17470,23 @@
       <c r="P263" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q263">
+        <v>0</v>
+      </c>
+      <c r="R263">
+        <v>0</v>
+      </c>
+      <c r="S263">
+        <v>0</v>
+      </c>
+      <c r="T263">
+        <v>0</v>
+      </c>
+      <c r="U263">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>0</v>
       </c>
@@ -13581,8 +17535,23 @@
       <c r="P264" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q264">
+        <v>0</v>
+      </c>
+      <c r="R264">
+        <v>0</v>
+      </c>
+      <c r="S264">
+        <v>0</v>
+      </c>
+      <c r="T264">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="U264">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>0.2</v>
       </c>
@@ -13631,8 +17600,23 @@
       <c r="P265" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q265">
+        <v>0</v>
+      </c>
+      <c r="R265">
+        <v>0</v>
+      </c>
+      <c r="S265">
+        <v>33.6</v>
+      </c>
+      <c r="T265">
+        <v>19</v>
+      </c>
+      <c r="U265">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>18.8</v>
       </c>
@@ -13681,8 +17665,23 @@
       <c r="P266" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q266">
+        <v>0.2</v>
+      </c>
+      <c r="R266">
+        <v>0</v>
+      </c>
+      <c r="S266">
+        <v>22.9</v>
+      </c>
+      <c r="T266">
+        <v>1.4</v>
+      </c>
+      <c r="U266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1</v>
       </c>
@@ -13731,8 +17730,23 @@
       <c r="P267" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q267">
+        <v>0</v>
+      </c>
+      <c r="R267">
+        <v>0</v>
+      </c>
+      <c r="S267">
+        <v>1.2</v>
+      </c>
+      <c r="T267">
+        <v>20.2</v>
+      </c>
+      <c r="U267">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1</v>
       </c>
@@ -13781,8 +17795,23 @@
       <c r="P268" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q268">
+        <v>0</v>
+      </c>
+      <c r="R268">
+        <v>0</v>
+      </c>
+      <c r="S268">
+        <v>0.8</v>
+      </c>
+      <c r="T268">
+        <v>0</v>
+      </c>
+      <c r="U268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>0</v>
       </c>
@@ -13831,8 +17860,23 @@
       <c r="P269" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q269">
+        <v>0</v>
+      </c>
+      <c r="R269">
+        <v>0</v>
+      </c>
+      <c r="S269">
+        <v>0.4</v>
+      </c>
+      <c r="T269">
+        <v>1</v>
+      </c>
+      <c r="U269">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>0</v>
       </c>
@@ -13881,8 +17925,23 @@
       <c r="P270" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q270">
+        <v>0</v>
+      </c>
+      <c r="R270">
+        <v>0</v>
+      </c>
+      <c r="S270">
+        <v>0</v>
+      </c>
+      <c r="T270">
+        <v>0</v>
+      </c>
+      <c r="U270">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>0.2</v>
       </c>
@@ -13931,8 +17990,23 @@
       <c r="P271" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q271">
+        <v>0</v>
+      </c>
+      <c r="R271">
+        <v>0</v>
+      </c>
+      <c r="S271">
+        <v>0.8</v>
+      </c>
+      <c r="T271">
+        <v>0</v>
+      </c>
+      <c r="U271">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>0.4</v>
       </c>
@@ -13981,8 +18055,23 @@
       <c r="P272" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q272">
+        <v>0</v>
+      </c>
+      <c r="R272">
+        <v>0</v>
+      </c>
+      <c r="S272">
+        <v>0</v>
+      </c>
+      <c r="T272">
+        <v>0</v>
+      </c>
+      <c r="U272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>6</v>
       </c>
@@ -14031,8 +18120,23 @@
       <c r="P273" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q273">
+        <v>0</v>
+      </c>
+      <c r="R273">
+        <v>0</v>
+      </c>
+      <c r="S273">
+        <v>0.2</v>
+      </c>
+      <c r="T273">
+        <v>0</v>
+      </c>
+      <c r="U273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>0</v>
       </c>
@@ -14081,8 +18185,23 @@
       <c r="P274" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q274">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R274">
+        <v>0</v>
+      </c>
+      <c r="S274">
+        <v>0</v>
+      </c>
+      <c r="T274">
+        <v>0</v>
+      </c>
+      <c r="U274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>0</v>
       </c>
@@ -14131,8 +18250,23 @@
       <c r="P275" s="1">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q275">
+        <v>0</v>
+      </c>
+      <c r="R275">
+        <v>0</v>
+      </c>
+      <c r="S275">
+        <v>9.1</v>
+      </c>
+      <c r="T275">
+        <v>0</v>
+      </c>
+      <c r="U275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>0</v>
       </c>
@@ -14181,8 +18315,23 @@
       <c r="P276" s="1">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q276">
+        <v>0</v>
+      </c>
+      <c r="R276">
+        <v>0</v>
+      </c>
+      <c r="S276">
+        <v>0</v>
+      </c>
+      <c r="T276">
+        <v>0</v>
+      </c>
+      <c r="U276">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>7.2</v>
       </c>
@@ -14231,8 +18380,23 @@
       <c r="P277" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q277">
+        <v>0</v>
+      </c>
+      <c r="R277">
+        <v>0</v>
+      </c>
+      <c r="S277">
+        <v>0</v>
+      </c>
+      <c r="T277">
+        <v>5.2</v>
+      </c>
+      <c r="U277">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>0.2</v>
       </c>
@@ -14281,8 +18445,23 @@
       <c r="P278" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q278">
+        <v>0</v>
+      </c>
+      <c r="R278">
+        <v>0</v>
+      </c>
+      <c r="S278">
+        <v>0</v>
+      </c>
+      <c r="T278">
+        <v>0</v>
+      </c>
+      <c r="U278">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>0.3</v>
       </c>
@@ -14331,8 +18510,23 @@
       <c r="P279" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q279">
+        <v>0</v>
+      </c>
+      <c r="R279">
+        <v>0</v>
+      </c>
+      <c r="S279">
+        <v>0</v>
+      </c>
+      <c r="T279">
+        <v>0</v>
+      </c>
+      <c r="U279">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>0.8</v>
       </c>
@@ -14381,8 +18575,23 @@
       <c r="P280" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q280">
+        <v>0</v>
+      </c>
+      <c r="R280">
+        <v>40.6</v>
+      </c>
+      <c r="S280">
+        <v>0</v>
+      </c>
+      <c r="T280">
+        <v>0</v>
+      </c>
+      <c r="U280">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>11.4</v>
       </c>
@@ -14431,8 +18640,23 @@
       <c r="P281" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q281">
+        <v>0</v>
+      </c>
+      <c r="R281">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S281">
+        <v>0</v>
+      </c>
+      <c r="T281">
+        <v>6.3</v>
+      </c>
+      <c r="U281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>0</v>
       </c>
@@ -14481,8 +18705,23 @@
       <c r="P282" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q282">
+        <v>0</v>
+      </c>
+      <c r="R282">
+        <v>13.1</v>
+      </c>
+      <c r="S282">
+        <v>0</v>
+      </c>
+      <c r="T282">
+        <v>0</v>
+      </c>
+      <c r="U282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>3.8</v>
       </c>
@@ -14531,8 +18770,23 @@
       <c r="P283" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q283">
+        <v>0</v>
+      </c>
+      <c r="R283">
+        <v>0</v>
+      </c>
+      <c r="S283">
+        <v>0.2</v>
+      </c>
+      <c r="T283">
+        <v>0</v>
+      </c>
+      <c r="U283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3.8</v>
       </c>
@@ -14581,8 +18835,23 @@
       <c r="P284" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q284">
+        <v>0</v>
+      </c>
+      <c r="R284">
+        <v>71.8</v>
+      </c>
+      <c r="S284">
+        <v>0</v>
+      </c>
+      <c r="T284">
+        <v>0</v>
+      </c>
+      <c r="U284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>0.2</v>
       </c>
@@ -14631,8 +18900,23 @@
       <c r="P285" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q285">
+        <v>0</v>
+      </c>
+      <c r="R285">
+        <v>0</v>
+      </c>
+      <c r="S285">
+        <v>0</v>
+      </c>
+      <c r="T285">
+        <v>0</v>
+      </c>
+      <c r="U285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>0.3</v>
       </c>
@@ -14681,8 +18965,23 @@
       <c r="P286" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q286">
+        <v>0</v>
+      </c>
+      <c r="R286">
+        <v>0</v>
+      </c>
+      <c r="S286">
+        <v>0</v>
+      </c>
+      <c r="T286">
+        <v>0</v>
+      </c>
+      <c r="U286">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>0</v>
       </c>
@@ -14731,8 +19030,23 @@
       <c r="P287" s="1">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q287">
+        <v>0.2</v>
+      </c>
+      <c r="R287">
+        <v>0</v>
+      </c>
+      <c r="S287">
+        <v>0</v>
+      </c>
+      <c r="T287">
+        <v>0</v>
+      </c>
+      <c r="U287">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>0.2</v>
       </c>
@@ -14781,8 +19095,23 @@
       <c r="P288" s="1">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q288">
+        <v>0</v>
+      </c>
+      <c r="R288">
+        <v>0</v>
+      </c>
+      <c r="S288">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="T288">
+        <v>0</v>
+      </c>
+      <c r="U288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>0.3</v>
       </c>
@@ -14831,8 +19160,23 @@
       <c r="P289" s="1">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q289">
+        <v>0.2</v>
+      </c>
+      <c r="R289">
+        <v>7.4</v>
+      </c>
+      <c r="S289">
+        <v>2.6</v>
+      </c>
+      <c r="T289">
+        <v>0</v>
+      </c>
+      <c r="U289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>0.2</v>
       </c>
@@ -14881,8 +19225,23 @@
       <c r="P290" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q290">
+        <v>0.4</v>
+      </c>
+      <c r="R290">
+        <v>5.8</v>
+      </c>
+      <c r="S290">
+        <v>0</v>
+      </c>
+      <c r="T290">
+        <v>0</v>
+      </c>
+      <c r="U290">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>0</v>
       </c>
@@ -14931,8 +19290,23 @@
       <c r="P291" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q291">
+        <v>0</v>
+      </c>
+      <c r="R291">
+        <v>5.7</v>
+      </c>
+      <c r="S291">
+        <v>0</v>
+      </c>
+      <c r="T291">
+        <v>0</v>
+      </c>
+      <c r="U291">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>12.4</v>
       </c>
@@ -14981,8 +19355,23 @@
       <c r="P292" s="1">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q292">
+        <v>0</v>
+      </c>
+      <c r="R292">
+        <v>0.2</v>
+      </c>
+      <c r="S292">
+        <v>0.8</v>
+      </c>
+      <c r="T292">
+        <v>0</v>
+      </c>
+      <c r="U292">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>12.4</v>
       </c>
@@ -15031,8 +19420,23 @@
       <c r="P293" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q293">
+        <v>0</v>
+      </c>
+      <c r="R293">
+        <v>0</v>
+      </c>
+      <c r="S293">
+        <v>0</v>
+      </c>
+      <c r="T293">
+        <v>0</v>
+      </c>
+      <c r="U293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>0.2</v>
       </c>
@@ -15081,8 +19485,23 @@
       <c r="P294" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q294">
+        <v>0</v>
+      </c>
+      <c r="R294">
+        <v>0.2</v>
+      </c>
+      <c r="S294">
+        <v>17</v>
+      </c>
+      <c r="T294">
+        <v>0</v>
+      </c>
+      <c r="U294">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>0.2</v>
       </c>
@@ -15131,8 +19550,23 @@
       <c r="P295" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q295">
+        <v>0</v>
+      </c>
+      <c r="R295">
+        <v>0</v>
+      </c>
+      <c r="S295">
+        <v>24.2</v>
+      </c>
+      <c r="T295">
+        <v>0</v>
+      </c>
+      <c r="U295">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>0.3</v>
       </c>
@@ -15181,8 +19615,23 @@
       <c r="P296" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q296">
+        <v>0</v>
+      </c>
+      <c r="R296">
+        <v>0</v>
+      </c>
+      <c r="S296">
+        <v>8.5</v>
+      </c>
+      <c r="T296">
+        <v>0</v>
+      </c>
+      <c r="U296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>0</v>
       </c>
@@ -15231,8 +19680,23 @@
       <c r="P297" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q297">
+        <v>0</v>
+      </c>
+      <c r="R297">
+        <v>0</v>
+      </c>
+      <c r="S297">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="T297">
+        <v>0.8</v>
+      </c>
+      <c r="U297">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>0</v>
       </c>
@@ -15281,8 +19745,23 @@
       <c r="P298" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q298">
+        <v>0</v>
+      </c>
+      <c r="R298">
+        <v>0</v>
+      </c>
+      <c r="S298">
+        <v>0</v>
+      </c>
+      <c r="T298">
+        <v>6.2</v>
+      </c>
+      <c r="U298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>0</v>
       </c>
@@ -15331,8 +19810,23 @@
       <c r="P299" s="1">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q299">
+        <v>0</v>
+      </c>
+      <c r="R299">
+        <v>0.2</v>
+      </c>
+      <c r="S299">
+        <v>0</v>
+      </c>
+      <c r="T299">
+        <v>0</v>
+      </c>
+      <c r="U299">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>0</v>
       </c>
@@ -15381,8 +19875,23 @@
       <c r="P300" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q300">
+        <v>0</v>
+      </c>
+      <c r="R300">
+        <v>0.2</v>
+      </c>
+      <c r="S300">
+        <v>0</v>
+      </c>
+      <c r="T300">
+        <v>2</v>
+      </c>
+      <c r="U300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>0</v>
       </c>
@@ -15431,8 +19940,23 @@
       <c r="P301" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q301">
+        <v>0</v>
+      </c>
+      <c r="R301">
+        <v>5.2</v>
+      </c>
+      <c r="S301">
+        <v>0</v>
+      </c>
+      <c r="T301">
+        <v>0</v>
+      </c>
+      <c r="U301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>0.2</v>
       </c>
@@ -15481,8 +20005,23 @@
       <c r="P302" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q302">
+        <v>0</v>
+      </c>
+      <c r="R302">
+        <v>8.9</v>
+      </c>
+      <c r="S302">
+        <v>0.2</v>
+      </c>
+      <c r="T302">
+        <v>0</v>
+      </c>
+      <c r="U302">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>0.2</v>
       </c>
@@ -15531,8 +20070,23 @@
       <c r="P303" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q303">
+        <v>0</v>
+      </c>
+      <c r="R303">
+        <v>47.6</v>
+      </c>
+      <c r="S303">
+        <v>0.2</v>
+      </c>
+      <c r="T303">
+        <v>0</v>
+      </c>
+      <c r="U303">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>0.2</v>
       </c>
@@ -15581,8 +20135,23 @@
       <c r="P304" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q304">
+        <v>0</v>
+      </c>
+      <c r="R304">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="S304">
+        <v>0.2</v>
+      </c>
+      <c r="T304">
+        <v>0</v>
+      </c>
+      <c r="U304">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>0.2</v>
       </c>
@@ -15631,8 +20200,23 @@
       <c r="P305" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q305">
+        <v>0</v>
+      </c>
+      <c r="R305">
+        <v>36.1</v>
+      </c>
+      <c r="S305">
+        <v>0.2</v>
+      </c>
+      <c r="T305">
+        <v>0</v>
+      </c>
+      <c r="U305">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>0.3</v>
       </c>
@@ -15681,8 +20265,23 @@
       <c r="P306" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q306">
+        <v>0</v>
+      </c>
+      <c r="R306">
+        <v>7.1</v>
+      </c>
+      <c r="S306">
+        <v>2</v>
+      </c>
+      <c r="T306">
+        <v>0</v>
+      </c>
+      <c r="U306">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>0</v>
       </c>
@@ -15731,8 +20330,23 @@
       <c r="P307" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q307">
+        <v>0</v>
+      </c>
+      <c r="R307">
+        <v>0.2</v>
+      </c>
+      <c r="S307">
+        <v>50.9</v>
+      </c>
+      <c r="T307">
+        <v>0</v>
+      </c>
+      <c r="U307">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>0</v>
       </c>
@@ -15781,8 +20395,23 @@
       <c r="P308" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q308">
+        <v>0</v>
+      </c>
+      <c r="R308">
+        <v>1.2</v>
+      </c>
+      <c r="S308">
+        <v>0.4</v>
+      </c>
+      <c r="T308">
+        <v>0</v>
+      </c>
+      <c r="U308">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>0.2</v>
       </c>
@@ -15831,8 +20460,23 @@
       <c r="P309" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q309">
+        <v>39.9</v>
+      </c>
+      <c r="R309">
+        <v>0</v>
+      </c>
+      <c r="S309">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T309">
+        <v>0</v>
+      </c>
+      <c r="U309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>0.3</v>
       </c>
@@ -15881,8 +20525,23 @@
       <c r="P310" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q310">
+        <v>0</v>
+      </c>
+      <c r="R310">
+        <v>12.3</v>
+      </c>
+      <c r="S310">
+        <v>0.2</v>
+      </c>
+      <c r="T310">
+        <v>0</v>
+      </c>
+      <c r="U310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>0</v>
       </c>
@@ -15931,8 +20590,23 @@
       <c r="P311" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q311">
+        <v>0</v>
+      </c>
+      <c r="R311">
+        <v>11.5</v>
+      </c>
+      <c r="S311">
+        <v>0</v>
+      </c>
+      <c r="T311">
+        <v>0</v>
+      </c>
+      <c r="U311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>0</v>
       </c>
@@ -15981,8 +20655,23 @@
       <c r="P312" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q312">
+        <v>0</v>
+      </c>
+      <c r="R312">
+        <v>5</v>
+      </c>
+      <c r="S312">
+        <v>2.6</v>
+      </c>
+      <c r="T312">
+        <v>0</v>
+      </c>
+      <c r="U312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>0</v>
       </c>
@@ -16031,8 +20720,23 @@
       <c r="P313" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q313">
+        <v>0</v>
+      </c>
+      <c r="R313">
+        <v>0</v>
+      </c>
+      <c r="S313">
+        <v>0</v>
+      </c>
+      <c r="T313">
+        <v>86.1</v>
+      </c>
+      <c r="U313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -16081,8 +20785,23 @@
       <c r="P314" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q314">
+        <v>0</v>
+      </c>
+      <c r="R314">
+        <v>8.9</v>
+      </c>
+      <c r="S314">
+        <v>0.8</v>
+      </c>
+      <c r="T314">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="U314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>0</v>
       </c>
@@ -16131,8 +20850,23 @@
       <c r="P315" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q315">
+        <v>0</v>
+      </c>
+      <c r="R315">
+        <v>0</v>
+      </c>
+      <c r="S315">
+        <v>0.4</v>
+      </c>
+      <c r="T315">
+        <v>0</v>
+      </c>
+      <c r="U315">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>7.2</v>
       </c>
@@ -16181,8 +20915,23 @@
       <c r="P316" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q316">
+        <v>0</v>
+      </c>
+      <c r="R316">
+        <v>0</v>
+      </c>
+      <c r="S316">
+        <v>0</v>
+      </c>
+      <c r="T316">
+        <v>0</v>
+      </c>
+      <c r="U316">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>7.1</v>
       </c>
@@ -16231,8 +20980,23 @@
       <c r="P317" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q317">
+        <v>0.2</v>
+      </c>
+      <c r="R317">
+        <v>0</v>
+      </c>
+      <c r="S317">
+        <v>0</v>
+      </c>
+      <c r="T317">
+        <v>0</v>
+      </c>
+      <c r="U317">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1</v>
       </c>
@@ -16281,8 +21045,23 @@
       <c r="P318" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q318">
+        <v>0</v>
+      </c>
+      <c r="R318">
+        <v>0</v>
+      </c>
+      <c r="S318">
+        <v>0</v>
+      </c>
+      <c r="T318">
+        <v>0</v>
+      </c>
+      <c r="U318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1.4</v>
       </c>
@@ -16331,8 +21110,23 @@
       <c r="P319" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q319">
+        <v>0</v>
+      </c>
+      <c r="R319">
+        <v>0.2</v>
+      </c>
+      <c r="S319">
+        <v>40.9</v>
+      </c>
+      <c r="T319">
+        <v>0</v>
+      </c>
+      <c r="U319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>4.2</v>
       </c>
@@ -16381,8 +21175,23 @@
       <c r="P320" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q320">
+        <v>0</v>
+      </c>
+      <c r="R320">
+        <v>0.2</v>
+      </c>
+      <c r="S320">
+        <v>16.3</v>
+      </c>
+      <c r="T320">
+        <v>0</v>
+      </c>
+      <c r="U320">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>4.3</v>
       </c>
@@ -16431,8 +21240,23 @@
       <c r="P321" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q321">
+        <v>0</v>
+      </c>
+      <c r="R321">
+        <v>0.6</v>
+      </c>
+      <c r="S321">
+        <v>0</v>
+      </c>
+      <c r="T321">
+        <v>7.5</v>
+      </c>
+      <c r="U321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>11.2</v>
       </c>
@@ -16481,8 +21305,23 @@
       <c r="P322" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q322">
+        <v>0</v>
+      </c>
+      <c r="R322">
+        <v>1.6</v>
+      </c>
+      <c r="S322">
+        <v>0</v>
+      </c>
+      <c r="T322">
+        <v>0</v>
+      </c>
+      <c r="U322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>11.2</v>
       </c>
@@ -16531,8 +21370,23 @@
       <c r="P323" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q323">
+        <v>0</v>
+      </c>
+      <c r="R323">
+        <v>0</v>
+      </c>
+      <c r="S323">
+        <v>0</v>
+      </c>
+      <c r="T323">
+        <v>0</v>
+      </c>
+      <c r="U323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>0</v>
       </c>
@@ -16581,8 +21435,23 @@
       <c r="P324" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q324">
+        <v>0</v>
+      </c>
+      <c r="R324">
+        <v>0</v>
+      </c>
+      <c r="S324">
+        <v>0.2</v>
+      </c>
+      <c r="T324">
+        <v>0</v>
+      </c>
+      <c r="U324">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>0</v>
       </c>
@@ -16631,8 +21500,23 @@
       <c r="P325" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q325">
+        <v>0</v>
+      </c>
+      <c r="R325">
+        <v>39.6</v>
+      </c>
+      <c r="S325">
+        <v>2</v>
+      </c>
+      <c r="T325">
+        <v>0</v>
+      </c>
+      <c r="U325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>0</v>
       </c>
@@ -16681,8 +21565,23 @@
       <c r="P326" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q326">
+        <v>0</v>
+      </c>
+      <c r="R326">
+        <v>6</v>
+      </c>
+      <c r="S326">
+        <v>13.3</v>
+      </c>
+      <c r="T326">
+        <v>0</v>
+      </c>
+      <c r="U326">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>0</v>
       </c>
@@ -16731,8 +21630,23 @@
       <c r="P327" s="1">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q327">
+        <v>0</v>
+      </c>
+      <c r="R327">
+        <v>5.2</v>
+      </c>
+      <c r="S327">
+        <v>41.2</v>
+      </c>
+      <c r="T327">
+        <v>0</v>
+      </c>
+      <c r="U327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>0</v>
       </c>
@@ -16781,8 +21695,23 @@
       <c r="P328" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q328">
+        <v>0</v>
+      </c>
+      <c r="R328">
+        <v>21.4</v>
+      </c>
+      <c r="S328">
+        <v>20.7</v>
+      </c>
+      <c r="T328">
+        <v>0</v>
+      </c>
+      <c r="U328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>0</v>
       </c>
@@ -16831,8 +21760,23 @@
       <c r="P329" s="1">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q329">
+        <v>0</v>
+      </c>
+      <c r="R329">
+        <v>0</v>
+      </c>
+      <c r="S329">
+        <v>2.8</v>
+      </c>
+      <c r="T329">
+        <v>0</v>
+      </c>
+      <c r="U329">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>0</v>
       </c>
@@ -16881,8 +21825,23 @@
       <c r="P330" s="1">
         <v>24.8</v>
       </c>
-    </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q330">
+        <v>0</v>
+      </c>
+      <c r="R330">
+        <v>8.5</v>
+      </c>
+      <c r="S330">
+        <v>0</v>
+      </c>
+      <c r="T330">
+        <v>0</v>
+      </c>
+      <c r="U330">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>0</v>
       </c>
@@ -16931,8 +21890,23 @@
       <c r="P331" s="1">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q331">
+        <v>0</v>
+      </c>
+      <c r="R331">
+        <v>0</v>
+      </c>
+      <c r="S331">
+        <v>3.8</v>
+      </c>
+      <c r="T331">
+        <v>0</v>
+      </c>
+      <c r="U331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>0</v>
       </c>
@@ -16981,8 +21955,23 @@
       <c r="P332" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q332">
+        <v>0</v>
+      </c>
+      <c r="R332">
+        <v>0</v>
+      </c>
+      <c r="S332">
+        <v>0.8</v>
+      </c>
+      <c r="T332">
+        <v>0</v>
+      </c>
+      <c r="U332">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>0</v>
       </c>
@@ -17031,8 +22020,23 @@
       <c r="P333" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q333">
+        <v>0</v>
+      </c>
+      <c r="R333">
+        <v>0</v>
+      </c>
+      <c r="S333">
+        <v>0.2</v>
+      </c>
+      <c r="T333">
+        <v>0</v>
+      </c>
+      <c r="U333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>0</v>
       </c>
@@ -17081,8 +22085,23 @@
       <c r="P334" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q334">
+        <v>0</v>
+      </c>
+      <c r="R334">
+        <v>0</v>
+      </c>
+      <c r="S334">
+        <v>0</v>
+      </c>
+      <c r="T334">
+        <v>0</v>
+      </c>
+      <c r="U334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>0</v>
       </c>
@@ -17131,8 +22150,23 @@
       <c r="P335" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q335">
+        <v>0.8</v>
+      </c>
+      <c r="R335">
+        <v>15.8</v>
+      </c>
+      <c r="S335">
+        <v>7.5</v>
+      </c>
+      <c r="T335">
+        <v>0</v>
+      </c>
+      <c r="U335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>0</v>
       </c>
@@ -17181,8 +22215,23 @@
       <c r="P336" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q336">
+        <v>0</v>
+      </c>
+      <c r="R336">
+        <v>0.2</v>
+      </c>
+      <c r="S336">
+        <v>60.6</v>
+      </c>
+      <c r="T336">
+        <v>0</v>
+      </c>
+      <c r="U336">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>0</v>
       </c>
@@ -17231,8 +22280,23 @@
       <c r="P337" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q337">
+        <v>0.6</v>
+      </c>
+      <c r="R337">
+        <v>0.2</v>
+      </c>
+      <c r="S337">
+        <v>0</v>
+      </c>
+      <c r="T337">
+        <v>0</v>
+      </c>
+      <c r="U337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>0</v>
       </c>
@@ -17281,8 +22345,23 @@
       <c r="P338" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q338">
+        <v>0</v>
+      </c>
+      <c r="R338">
+        <v>0</v>
+      </c>
+      <c r="S338">
+        <v>0</v>
+      </c>
+      <c r="T338">
+        <v>0</v>
+      </c>
+      <c r="U338">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>0</v>
       </c>
@@ -17331,8 +22410,23 @@
       <c r="P339" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q339">
+        <v>0</v>
+      </c>
+      <c r="R339">
+        <v>0</v>
+      </c>
+      <c r="S339">
+        <v>0</v>
+      </c>
+      <c r="T339">
+        <v>0</v>
+      </c>
+      <c r="U339">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>0</v>
       </c>
@@ -17381,8 +22475,23 @@
       <c r="P340" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q340">
+        <v>0</v>
+      </c>
+      <c r="R340">
+        <v>0</v>
+      </c>
+      <c r="S340">
+        <v>1.2</v>
+      </c>
+      <c r="T340">
+        <v>0.6</v>
+      </c>
+      <c r="U340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>0</v>
       </c>
@@ -17431,8 +22540,23 @@
       <c r="P341" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q341">
+        <v>0</v>
+      </c>
+      <c r="R341">
+        <v>0</v>
+      </c>
+      <c r="S341">
+        <v>0</v>
+      </c>
+      <c r="T341">
+        <v>0</v>
+      </c>
+      <c r="U341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>0</v>
       </c>
@@ -17481,8 +22605,23 @@
       <c r="P342" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q342">
+        <v>0.4</v>
+      </c>
+      <c r="R342">
+        <v>0</v>
+      </c>
+      <c r="S342">
+        <v>0</v>
+      </c>
+      <c r="T342">
+        <v>0</v>
+      </c>
+      <c r="U342">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>0</v>
       </c>
@@ -17531,8 +22670,23 @@
       <c r="P343" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q343">
+        <v>0.4</v>
+      </c>
+      <c r="R343">
+        <v>0</v>
+      </c>
+      <c r="S343">
+        <v>0.4</v>
+      </c>
+      <c r="T343">
+        <v>7.5</v>
+      </c>
+      <c r="U343">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>0</v>
       </c>
@@ -17581,8 +22735,23 @@
       <c r="P344" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q344">
+        <v>0</v>
+      </c>
+      <c r="R344">
+        <v>0</v>
+      </c>
+      <c r="S344">
+        <v>0</v>
+      </c>
+      <c r="T344">
+        <v>0</v>
+      </c>
+      <c r="U344">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>0</v>
       </c>
@@ -17631,8 +22800,23 @@
       <c r="P345" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q345">
+        <v>9.4</v>
+      </c>
+      <c r="R345">
+        <v>0</v>
+      </c>
+      <c r="S345">
+        <v>0</v>
+      </c>
+      <c r="T345">
+        <v>0</v>
+      </c>
+      <c r="U345">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>0</v>
       </c>
@@ -17681,8 +22865,23 @@
       <c r="P346" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q346">
+        <v>6.2</v>
+      </c>
+      <c r="R346">
+        <v>0</v>
+      </c>
+      <c r="S346">
+        <v>0.6</v>
+      </c>
+      <c r="T346">
+        <v>1</v>
+      </c>
+      <c r="U346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>0</v>
       </c>
@@ -17731,8 +22930,23 @@
       <c r="P347" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q347">
+        <v>0</v>
+      </c>
+      <c r="R347">
+        <v>0</v>
+      </c>
+      <c r="S347">
+        <v>5.6</v>
+      </c>
+      <c r="T347">
+        <v>11.6</v>
+      </c>
+      <c r="U347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>0.8</v>
       </c>
@@ -17781,8 +22995,23 @@
       <c r="P348" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q348">
+        <v>0.2</v>
+      </c>
+      <c r="R348">
+        <v>0.4</v>
+      </c>
+      <c r="S348">
+        <v>2.6</v>
+      </c>
+      <c r="T348">
+        <v>0</v>
+      </c>
+      <c r="U348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>0.4</v>
       </c>
@@ -17831,8 +23060,23 @@
       <c r="P349" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q349">
+        <v>0</v>
+      </c>
+      <c r="R349">
+        <v>0</v>
+      </c>
+      <c r="S349">
+        <v>0</v>
+      </c>
+      <c r="T349">
+        <v>0</v>
+      </c>
+      <c r="U349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>0</v>
       </c>
@@ -17881,8 +23125,23 @@
       <c r="P350" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q350">
+        <v>0</v>
+      </c>
+      <c r="R350">
+        <v>1.8</v>
+      </c>
+      <c r="S350">
+        <v>0</v>
+      </c>
+      <c r="T350">
+        <v>0</v>
+      </c>
+      <c r="U350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -17931,8 +23190,23 @@
       <c r="P351" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q351">
+        <v>0</v>
+      </c>
+      <c r="R351">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="S351">
+        <v>0</v>
+      </c>
+      <c r="T351">
+        <v>0.2</v>
+      </c>
+      <c r="U351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>0</v>
       </c>
@@ -17981,8 +23255,23 @@
       <c r="P352" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q352">
+        <v>0</v>
+      </c>
+      <c r="R352">
+        <v>0</v>
+      </c>
+      <c r="S352">
+        <v>0</v>
+      </c>
+      <c r="T352">
+        <v>0</v>
+      </c>
+      <c r="U352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>0</v>
       </c>
@@ -18031,8 +23320,23 @@
       <c r="P353" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q353">
+        <v>0.4</v>
+      </c>
+      <c r="R353">
+        <v>1.8</v>
+      </c>
+      <c r="S353">
+        <v>0</v>
+      </c>
+      <c r="T353">
+        <v>0</v>
+      </c>
+      <c r="U353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>0</v>
       </c>
@@ -18081,8 +23385,23 @@
       <c r="P354" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q354">
+        <v>0</v>
+      </c>
+      <c r="R354">
+        <v>15.1</v>
+      </c>
+      <c r="S354">
+        <v>4.2</v>
+      </c>
+      <c r="T354">
+        <v>0</v>
+      </c>
+      <c r="U354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>0</v>
       </c>
@@ -18131,8 +23450,23 @@
       <c r="P355" s="1">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q355">
+        <v>0</v>
+      </c>
+      <c r="R355">
+        <v>0</v>
+      </c>
+      <c r="S355">
+        <v>22.8</v>
+      </c>
+      <c r="T355">
+        <v>0.4</v>
+      </c>
+      <c r="U355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>0</v>
       </c>
@@ -18181,8 +23515,23 @@
       <c r="P356" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q356">
+        <v>0</v>
+      </c>
+      <c r="R356">
+        <v>0</v>
+      </c>
+      <c r="S356">
+        <v>5.5</v>
+      </c>
+      <c r="T356">
+        <v>12.1</v>
+      </c>
+      <c r="U356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>0</v>
       </c>
@@ -18231,8 +23580,23 @@
       <c r="P357" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q357">
+        <v>0</v>
+      </c>
+      <c r="R357">
+        <v>0</v>
+      </c>
+      <c r="S357">
+        <v>0</v>
+      </c>
+      <c r="T357">
+        <v>0</v>
+      </c>
+      <c r="U357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>0</v>
       </c>
@@ -18281,8 +23645,23 @@
       <c r="P358" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q358">
+        <v>0</v>
+      </c>
+      <c r="R358">
+        <v>0</v>
+      </c>
+      <c r="S358">
+        <v>0</v>
+      </c>
+      <c r="T358">
+        <v>0</v>
+      </c>
+      <c r="U358">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>0</v>
       </c>
@@ -18331,8 +23710,23 @@
       <c r="P359" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q359">
+        <v>0</v>
+      </c>
+      <c r="R359">
+        <v>0</v>
+      </c>
+      <c r="S359">
+        <v>0</v>
+      </c>
+      <c r="T359">
+        <v>1.6</v>
+      </c>
+      <c r="U359">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>0</v>
       </c>
@@ -18381,8 +23775,23 @@
       <c r="P360" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q360">
+        <v>0.2</v>
+      </c>
+      <c r="R360">
+        <v>0</v>
+      </c>
+      <c r="S360">
+        <v>0</v>
+      </c>
+      <c r="T360">
+        <v>0</v>
+      </c>
+      <c r="U360">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>0</v>
       </c>
@@ -18431,8 +23840,23 @@
       <c r="P361" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q361">
+        <v>2.6</v>
+      </c>
+      <c r="R361">
+        <v>0</v>
+      </c>
+      <c r="S361">
+        <v>0</v>
+      </c>
+      <c r="T361">
+        <v>0</v>
+      </c>
+      <c r="U361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>0</v>
       </c>
@@ -18481,8 +23905,23 @@
       <c r="P362" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q362">
+        <v>1</v>
+      </c>
+      <c r="R362">
+        <v>0</v>
+      </c>
+      <c r="S362">
+        <v>0</v>
+      </c>
+      <c r="T362">
+        <v>0</v>
+      </c>
+      <c r="U362">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>0</v>
       </c>
@@ -18531,8 +23970,23 @@
       <c r="P363" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q363">
+        <v>0</v>
+      </c>
+      <c r="R363">
+        <v>0</v>
+      </c>
+      <c r="S363">
+        <v>0</v>
+      </c>
+      <c r="T363">
+        <v>0.6</v>
+      </c>
+      <c r="U363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>0</v>
       </c>
@@ -18581,8 +24035,23 @@
       <c r="P364" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q364">
+        <v>1.8</v>
+      </c>
+      <c r="R364">
+        <v>0</v>
+      </c>
+      <c r="S364">
+        <v>0</v>
+      </c>
+      <c r="T364">
+        <v>1.4</v>
+      </c>
+      <c r="U364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>0</v>
       </c>
@@ -18631,8 +24100,23 @@
       <c r="P365" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q365">
+        <v>1.2</v>
+      </c>
+      <c r="R365">
+        <v>0</v>
+      </c>
+      <c r="S365">
+        <v>0</v>
+      </c>
+      <c r="T365">
+        <v>0</v>
+      </c>
+      <c r="U365">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>0</v>
       </c>
@@ -18681,8 +24165,23 @@
       <c r="P366" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q366">
+        <v>0.4</v>
+      </c>
+      <c r="R366">
+        <v>0</v>
+      </c>
+      <c r="S366">
+        <v>0</v>
+      </c>
+      <c r="T366">
+        <v>0</v>
+      </c>
+      <c r="U366">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1">
@@ -18705,6 +24204,9 @@
       <c r="O367" s="1"/>
       <c r="P367" s="1">
         <v>0</v>
+      </c>
+      <c r="T367">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/marseille.xlsx
+++ b/data/marseille.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aminata\Desktop\IMAFA\UE Mathematiques pour la Modélisation\actuariat\Assurance_meteo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Assurance_meteo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D81A5AB-D73E-4490-8937-F706662DD2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B56988-CD5B-4769-B846-FA8CD9D1B7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -39,10 +39,6 @@
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Feuil1;Extended Properties=&quot;&quot;" command="SELECT * FROM [Feuil1]"/>
   </connection>
 </connections>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,16 +357,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83396ACF-BC91-4CB8-994F-710D4D090B6C}">
   <dimension ref="A1:U367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:U1"/>
+    <sheetView tabSelected="1" topLeftCell="J355" workbookViewId="0">
+      <selection activeCell="U367" sqref="U367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1">
         <f>2001</f>
         <v>2001</v>
@@ -456,7 +452,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -521,7 +517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -586,7 +582,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.8</v>
       </c>
@@ -651,7 +647,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5.6</v>
       </c>
@@ -716,7 +712,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.2</v>
       </c>
@@ -781,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.2</v>
       </c>
@@ -846,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.3</v>
       </c>
@@ -911,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -976,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.2</v>
       </c>
@@ -1041,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1106,7 +1102,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.2</v>
       </c>
@@ -1171,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5.8</v>
       </c>
@@ -1236,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.4</v>
       </c>
@@ -1301,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1366,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1431,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.4</v>
       </c>
@@ -1496,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.6</v>
       </c>
@@ -1561,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2.6</v>
       </c>
@@ -1626,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1691,7 +1687,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1756,7 +1752,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1821,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1886,7 +1882,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1951,7 +1947,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2016,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.2</v>
       </c>
@@ -2081,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.6</v>
       </c>
@@ -2146,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2211,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>33</v>
       </c>
@@ -2276,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>33</v>
       </c>
@@ -2341,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2406,7 +2402,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2471,7 +2467,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2536,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2601,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2666,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2731,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2796,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0</v>
       </c>
@@ -2861,7 +2857,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2926,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0</v>
       </c>
@@ -2991,7 +2987,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0</v>
       </c>
@@ -3056,7 +3052,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3121,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3186,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3251,7 +3247,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3316,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3381,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3446,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3511,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>13.6</v>
       </c>
@@ -3576,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1.2</v>
       </c>
@@ -3641,7 +3637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1.3</v>
       </c>
@@ -3706,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3771,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0</v>
       </c>
@@ -3836,7 +3832,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0</v>
       </c>
@@ -3901,7 +3897,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0</v>
       </c>
@@ -3966,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>0</v>
       </c>
@@ -4031,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0</v>
       </c>
@@ -4096,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0</v>
       </c>
@@ -4161,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>20</v>
       </c>
@@ -4226,7 +4222,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0.6</v>
       </c>
@@ -4291,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.8</v>
       </c>
@@ -4356,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>5.8</v>
       </c>
@@ -4421,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0.2</v>
       </c>
@@ -4486,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.3</v>
       </c>
@@ -4551,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0</v>
       </c>
@@ -4616,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0</v>
       </c>
@@ -4681,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0</v>
       </c>
@@ -4746,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>13</v>
       </c>
@@ -4811,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1.6</v>
       </c>
@@ -4876,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0.4</v>
       </c>
@@ -4941,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0.5</v>
       </c>
@@ -5006,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2.2000000000000002</v>
       </c>
@@ -5071,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2.2999999999999998</v>
       </c>
@@ -5136,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0</v>
       </c>
@@ -5201,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0</v>
       </c>
@@ -5266,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>4</v>
       </c>
@@ -5331,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>6</v>
       </c>
@@ -5396,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>6.1</v>
       </c>
@@ -5461,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0</v>
       </c>
@@ -5526,7 +5522,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0</v>
       </c>
@@ -5591,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.2</v>
       </c>
@@ -5656,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0</v>
       </c>
@@ -5721,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0</v>
       </c>
@@ -5786,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0</v>
       </c>
@@ -5851,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0</v>
       </c>
@@ -5916,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0</v>
       </c>
@@ -5981,7 +5977,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0</v>
       </c>
@@ -6046,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0.6</v>
       </c>
@@ -6111,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1</v>
       </c>
@@ -6176,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1</v>
       </c>
@@ -6241,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0</v>
       </c>
@@ -6306,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0</v>
       </c>
@@ -6371,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0</v>
       </c>
@@ -6436,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0</v>
       </c>
@@ -6501,7 +6497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1.2</v>
       </c>
@@ -6566,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1.3</v>
       </c>
@@ -6631,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>3.4</v>
       </c>
@@ -6696,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1</v>
       </c>
@@ -6761,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1</v>
       </c>
@@ -6826,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0</v>
       </c>
@@ -6891,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0</v>
       </c>
@@ -6956,7 +6952,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0</v>
       </c>
@@ -7021,7 +7017,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0</v>
       </c>
@@ -7086,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0</v>
       </c>
@@ -7151,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0</v>
       </c>
@@ -7216,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0</v>
       </c>
@@ -7281,7 +7277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0</v>
       </c>
@@ -7346,7 +7342,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0</v>
       </c>
@@ -7411,7 +7407,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0</v>
       </c>
@@ -7476,7 +7472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0.4</v>
       </c>
@@ -7541,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0.5</v>
       </c>
@@ -7606,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0</v>
       </c>
@@ -7671,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>3.2</v>
       </c>
@@ -7736,7 +7732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>3.3</v>
       </c>
@@ -7801,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0</v>
       </c>
@@ -7866,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0</v>
       </c>
@@ -7931,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0</v>
       </c>
@@ -7996,7 +7992,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0</v>
       </c>
@@ -8061,7 +8057,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0</v>
       </c>
@@ -8126,7 +8122,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0</v>
       </c>
@@ -8191,7 +8187,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>15.8</v>
       </c>
@@ -8256,7 +8252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>18.399999999999999</v>
       </c>
@@ -8321,7 +8317,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>42</v>
       </c>
@@ -8386,7 +8382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>41.9</v>
       </c>
@@ -8451,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1</v>
       </c>
@@ -8516,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1</v>
       </c>
@@ -8581,7 +8577,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0</v>
       </c>
@@ -8646,7 +8642,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0</v>
       </c>
@@ -8711,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0</v>
       </c>
@@ -8776,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0</v>
       </c>
@@ -8841,7 +8837,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0</v>
       </c>
@@ -8906,7 +8902,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>2.6</v>
       </c>
@@ -8971,7 +8967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>2.5</v>
       </c>
@@ -9036,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0</v>
       </c>
@@ -9101,7 +9097,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>0</v>
       </c>
@@ -9166,7 +9162,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0</v>
       </c>
@@ -9231,7 +9227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0</v>
       </c>
@@ -9296,7 +9292,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>2</v>
       </c>
@@ -9361,7 +9357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>2</v>
       </c>
@@ -9426,7 +9422,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0</v>
       </c>
@@ -9491,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>11.4</v>
       </c>
@@ -9556,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>5</v>
       </c>
@@ -9621,7 +9617,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>5.0999999999999996</v>
       </c>
@@ -9686,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0</v>
       </c>
@@ -9751,7 +9747,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0.4</v>
       </c>
@@ -9816,7 +9812,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0.5</v>
       </c>
@@ -9881,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0</v>
       </c>
@@ -9946,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0</v>
       </c>
@@ -10011,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0.8</v>
       </c>
@@ -10076,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0.8</v>
       </c>
@@ -10141,7 +10137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0</v>
       </c>
@@ -10206,7 +10202,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0</v>
       </c>
@@ -10271,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0</v>
       </c>
@@ -10336,7 +10332,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0</v>
       </c>
@@ -10401,7 +10397,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0</v>
       </c>
@@ -10466,7 +10462,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0</v>
       </c>
@@ -10531,7 +10527,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0</v>
       </c>
@@ -10596,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0</v>
       </c>
@@ -10661,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>0</v>
       </c>
@@ -10726,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0</v>
       </c>
@@ -10791,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0</v>
       </c>
@@ -10856,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1.4</v>
       </c>
@@ -10921,7 +10917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1.5</v>
       </c>
@@ -10986,7 +10982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0</v>
       </c>
@@ -11051,7 +11047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0</v>
       </c>
@@ -11116,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0</v>
       </c>
@@ -11181,7 +11177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0</v>
       </c>
@@ -11246,7 +11242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0</v>
       </c>
@@ -11311,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0</v>
       </c>
@@ -11376,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0</v>
       </c>
@@ -11441,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0</v>
       </c>
@@ -11506,7 +11502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0</v>
       </c>
@@ -11571,7 +11567,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0</v>
       </c>
@@ -11636,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0</v>
       </c>
@@ -11701,7 +11697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0</v>
       </c>
@@ -11766,7 +11762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0</v>
       </c>
@@ -11831,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0</v>
       </c>
@@ -11896,7 +11892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>0</v>
       </c>
@@ -11961,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0</v>
       </c>
@@ -12026,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0</v>
       </c>
@@ -12091,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>0</v>
       </c>
@@ -12156,7 +12152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0</v>
       </c>
@@ -12221,7 +12217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0</v>
       </c>
@@ -12286,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0</v>
       </c>
@@ -12351,7 +12347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>0</v>
       </c>
@@ -12416,7 +12412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>0</v>
       </c>
@@ -12481,7 +12477,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>0</v>
       </c>
@@ -12546,7 +12542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>4.4000000000000004</v>
       </c>
@@ -12611,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>4.3</v>
       </c>
@@ -12676,7 +12672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>0</v>
       </c>
@@ -12741,7 +12737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0</v>
       </c>
@@ -12806,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>0</v>
       </c>
@@ -12871,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0</v>
       </c>
@@ -12936,7 +12932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>0</v>
       </c>
@@ -13001,7 +12997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0</v>
       </c>
@@ -13066,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>0.2</v>
       </c>
@@ -13131,7 +13127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>14</v>
       </c>
@@ -13196,7 +13192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>14</v>
       </c>
@@ -13261,7 +13257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>0.2</v>
       </c>
@@ -13326,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>0.3</v>
       </c>
@@ -13391,7 +13387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>0</v>
       </c>
@@ -13456,7 +13452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>0</v>
       </c>
@@ -13521,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>0</v>
       </c>
@@ -13586,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>0</v>
       </c>
@@ -13651,7 +13647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>0</v>
       </c>
@@ -13716,7 +13712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>0</v>
       </c>
@@ -13781,7 +13777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>0</v>
       </c>
@@ -13846,7 +13842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>0</v>
       </c>
@@ -13911,7 +13907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>0</v>
       </c>
@@ -13976,7 +13972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>0</v>
       </c>
@@ -14041,7 +14037,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>0</v>
       </c>
@@ -14106,7 +14102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>0</v>
       </c>
@@ -14171,7 +14167,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>0</v>
       </c>
@@ -14236,7 +14232,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>0</v>
       </c>
@@ -14301,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>0</v>
       </c>
@@ -14366,7 +14362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>0</v>
       </c>
@@ -14431,7 +14427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>0</v>
       </c>
@@ -14496,7 +14492,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>0</v>
       </c>
@@ -14561,7 +14557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>0</v>
       </c>
@@ -14626,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>0</v>
       </c>
@@ -14691,7 +14687,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>0</v>
       </c>
@@ -14756,7 +14752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>0</v>
       </c>
@@ -14821,7 +14817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>0.8</v>
       </c>
@@ -14886,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>0</v>
       </c>
@@ -14951,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>0</v>
       </c>
@@ -15016,7 +15012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>0</v>
       </c>
@@ -15081,7 +15077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>0</v>
       </c>
@@ -15146,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>0</v>
       </c>
@@ -15211,7 +15207,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>0</v>
       </c>
@@ -15276,7 +15272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>0</v>
       </c>
@@ -15341,7 +15337,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>0</v>
       </c>
@@ -15406,7 +15402,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>0</v>
       </c>
@@ -15471,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>0</v>
       </c>
@@ -15536,7 +15532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>0</v>
       </c>
@@ -15601,7 +15597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>0</v>
       </c>
@@ -15666,7 +15662,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>0</v>
       </c>
@@ -15731,7 +15727,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>0</v>
       </c>
@@ -15796,7 +15792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>0</v>
       </c>
@@ -15861,7 +15857,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>0</v>
       </c>
@@ -15926,7 +15922,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>0</v>
       </c>
@@ -15991,7 +15987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>0</v>
       </c>
@@ -16056,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>0</v>
       </c>
@@ -16121,7 +16117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>0</v>
       </c>
@@ -16186,7 +16182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>0</v>
       </c>
@@ -16251,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>0</v>
       </c>
@@ -16316,7 +16312,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>0</v>
       </c>
@@ -16381,7 +16377,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>0.4</v>
       </c>
@@ -16446,7 +16442,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>0.5</v>
       </c>
@@ -16511,7 +16507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>0</v>
       </c>
@@ -16576,7 +16572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>0</v>
       </c>
@@ -16641,7 +16637,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>0</v>
       </c>
@@ -16706,7 +16702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>0</v>
       </c>
@@ -16771,7 +16767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>0</v>
       </c>
@@ -16836,7 +16832,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>0</v>
       </c>
@@ -16901,7 +16897,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>0</v>
       </c>
@@ -16966,7 +16962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>0</v>
       </c>
@@ -17031,7 +17027,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>0</v>
       </c>
@@ -17096,7 +17092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>5.8</v>
       </c>
@@ -17161,7 +17157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>6</v>
       </c>
@@ -17226,7 +17222,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>0</v>
       </c>
@@ -17291,7 +17287,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>0</v>
       </c>
@@ -17356,7 +17352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>0</v>
       </c>
@@ -17421,7 +17417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>0</v>
       </c>
@@ -17486,7 +17482,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>0</v>
       </c>
@@ -17551,7 +17547,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>0.2</v>
       </c>
@@ -17616,7 +17612,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>18.8</v>
       </c>
@@ -17681,7 +17677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1</v>
       </c>
@@ -17746,7 +17742,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>1</v>
       </c>
@@ -17811,7 +17807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>0</v>
       </c>
@@ -17876,7 +17872,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>0</v>
       </c>
@@ -17941,7 +17937,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>0.2</v>
       </c>
@@ -18006,7 +18002,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>0.4</v>
       </c>
@@ -18071,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>6</v>
       </c>
@@ -18136,7 +18132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>0</v>
       </c>
@@ -18201,7 +18197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>0</v>
       </c>
@@ -18266,7 +18262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>0</v>
       </c>
@@ -18331,7 +18327,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>7.2</v>
       </c>
@@ -18396,7 +18392,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>0.2</v>
       </c>
@@ -18461,7 +18457,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>0.3</v>
       </c>
@@ -18526,7 +18522,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>0.8</v>
       </c>
@@ -18591,7 +18587,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>11.4</v>
       </c>
@@ -18656,7 +18652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>0</v>
       </c>
@@ -18721,7 +18717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>3.8</v>
       </c>
@@ -18786,7 +18782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>3.8</v>
       </c>
@@ -18851,7 +18847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>0.2</v>
       </c>
@@ -18916,7 +18912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>0.3</v>
       </c>
@@ -18981,7 +18977,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>0</v>
       </c>
@@ -19046,7 +19042,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>0.2</v>
       </c>
@@ -19111,7 +19107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>0.3</v>
       </c>
@@ -19176,7 +19172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>0.2</v>
       </c>
@@ -19241,7 +19237,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>0</v>
       </c>
@@ -19306,7 +19302,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>12.4</v>
       </c>
@@ -19371,7 +19367,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>12.4</v>
       </c>
@@ -19436,7 +19432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>0.2</v>
       </c>
@@ -19501,7 +19497,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>0.2</v>
       </c>
@@ -19566,7 +19562,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>0.3</v>
       </c>
@@ -19631,7 +19627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>0</v>
       </c>
@@ -19696,7 +19692,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>0</v>
       </c>
@@ -19761,7 +19757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>0</v>
       </c>
@@ -19826,7 +19822,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>0</v>
       </c>
@@ -19891,7 +19887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>0</v>
       </c>
@@ -19956,7 +19952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>0.2</v>
       </c>
@@ -20021,7 +20017,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>0.2</v>
       </c>
@@ -20086,7 +20082,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>0.2</v>
       </c>
@@ -20151,7 +20147,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>0.2</v>
       </c>
@@ -20216,7 +20212,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>0.3</v>
       </c>
@@ -20281,7 +20277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>0</v>
       </c>
@@ -20346,7 +20342,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>0</v>
       </c>
@@ -20411,7 +20407,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>0.2</v>
       </c>
@@ -20476,7 +20472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>0.3</v>
       </c>
@@ -20541,7 +20537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>0</v>
       </c>
@@ -20606,7 +20602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>0</v>
       </c>
@@ -20671,7 +20667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>0</v>
       </c>
@@ -20736,7 +20732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>0</v>
       </c>
@@ -20801,7 +20797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>0</v>
       </c>
@@ -20866,7 +20862,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>7.2</v>
       </c>
@@ -20931,7 +20927,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>7.1</v>
       </c>
@@ -20996,7 +20992,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>1</v>
       </c>
@@ -21061,7 +21057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>1.4</v>
       </c>
@@ -21126,7 +21122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>4.2</v>
       </c>
@@ -21191,7 +21187,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>4.3</v>
       </c>
@@ -21256,7 +21252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>11.2</v>
       </c>
@@ -21321,7 +21317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>11.2</v>
       </c>
@@ -21386,7 +21382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>0</v>
       </c>
@@ -21451,7 +21447,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>0</v>
       </c>
@@ -21516,7 +21512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>0</v>
       </c>
@@ -21581,7 +21577,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>0</v>
       </c>
@@ -21646,7 +21642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>0</v>
       </c>
@@ -21711,7 +21707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>0</v>
       </c>
@@ -21776,7 +21772,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>0</v>
       </c>
@@ -21841,7 +21837,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>0</v>
       </c>
@@ -21906,7 +21902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>0</v>
       </c>
@@ -21971,7 +21967,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>0</v>
       </c>
@@ -22036,7 +22032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>0</v>
       </c>
@@ -22101,7 +22097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>0</v>
       </c>
@@ -22166,7 +22162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>0</v>
       </c>
@@ -22231,7 +22227,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>0</v>
       </c>
@@ -22296,7 +22292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>0</v>
       </c>
@@ -22361,7 +22357,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>0</v>
       </c>
@@ -22426,7 +22422,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>0</v>
       </c>
@@ -22491,7 +22487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>0</v>
       </c>
@@ -22556,7 +22552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>0</v>
       </c>
@@ -22621,7 +22617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>0</v>
       </c>
@@ -22686,7 +22682,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>0</v>
       </c>
@@ -22751,7 +22747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>0</v>
       </c>
@@ -22816,7 +22812,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>0</v>
       </c>
@@ -22881,7 +22877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>0</v>
       </c>
@@ -22946,7 +22942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>0.8</v>
       </c>
@@ -23011,7 +23007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>0.4</v>
       </c>
@@ -23076,7 +23072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>0</v>
       </c>
@@ -23141,7 +23137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>0</v>
       </c>
@@ -23206,7 +23202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>0</v>
       </c>
@@ -23271,7 +23267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>0</v>
       </c>
@@ -23336,7 +23332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>0</v>
       </c>
@@ -23401,7 +23397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>0</v>
       </c>
@@ -23466,7 +23462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>0</v>
       </c>
@@ -23531,7 +23527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>0</v>
       </c>
@@ -23596,7 +23592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>0</v>
       </c>
@@ -23661,7 +23657,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>0</v>
       </c>
@@ -23726,7 +23722,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>0</v>
       </c>
@@ -23791,7 +23787,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>0</v>
       </c>
@@ -23856,7 +23852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>0</v>
       </c>
@@ -23921,7 +23917,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>0</v>
       </c>
@@ -23986,7 +23982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>0</v>
       </c>
@@ -24051,7 +24047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>0</v>
       </c>
@@ -24116,7 +24112,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>0</v>
       </c>
@@ -24181,32 +24177,69 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B367" s="1"/>
-      <c r="C367" s="1"/>
+    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>0</v>
+      </c>
+      <c r="B367" s="1">
+        <v>0</v>
+      </c>
+      <c r="C367" s="1">
+        <v>0</v>
+      </c>
       <c r="D367" s="1">
         <v>0</v>
       </c>
-      <c r="E367" s="1"/>
-      <c r="F367" s="1"/>
-      <c r="G367" s="1"/>
+      <c r="E367" s="1">
+        <v>0</v>
+      </c>
+      <c r="F367" s="1">
+        <v>0</v>
+      </c>
+      <c r="G367" s="1">
+        <v>0</v>
+      </c>
       <c r="H367" s="1">
         <v>0</v>
       </c>
-      <c r="I367" s="1"/>
-      <c r="J367" s="1"/>
-      <c r="K367" s="1"/>
+      <c r="I367" s="1">
+        <v>0</v>
+      </c>
+      <c r="J367" s="1">
+        <v>0</v>
+      </c>
+      <c r="K367" s="1">
+        <v>0</v>
+      </c>
       <c r="L367" s="1">
         <v>0</v>
       </c>
-      <c r="M367" s="1"/>
-      <c r="N367" s="1"/>
-      <c r="O367" s="1"/>
+      <c r="M367" s="1">
+        <v>0</v>
+      </c>
+      <c r="N367" s="1">
+        <v>0</v>
+      </c>
+      <c r="O367" s="1">
+        <v>0</v>
+      </c>
       <c r="P367" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q367" s="1">
+        <v>0</v>
+      </c>
+      <c r="R367" s="1">
+        <v>0</v>
+      </c>
+      <c r="S367" s="1">
         <v>0</v>
       </c>
       <c r="T367">
         <v>1.2</v>
+      </c>
+      <c r="U367">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
